--- a/DOM_Banner/output/dept_banner/Elizabeth B Juneman_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Elizabeth B Juneman_2023.xlsx
@@ -1100,22 +1100,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>ASAIO Journal</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S8999885</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1058-2916</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Elizabeth B Juneman_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Elizabeth B Juneman_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Cardiovascular Diseases, University of Arizona, Tucson, AZ, United States; Division of Cardiovascular Surgery, University of Arizona, Tucson, AZ, United States; Division of Cardiovascular Surgery, University of Arizona, Tucson, AZ, United States; Division of Cardiovascular Diseases, University of Arizona, Tucson, AZ, United States; Artificial Heart Program, University of Arizona, Tucson, AZ, United States; Division of Cardiovascular Diseases, University of Arizona, Tucson, AZ, United States; Cardiovascular Diseases, Spectrum Health, Grand Rapids, MI, United States; Division of Cardiology, Carondelet Medical Center, Tucson, AZ, United States; Division of Cardiology, Carondelet Medical Center, Tucson, AZ, United States; Division of Cardiovascular Diseases, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321596045</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Aortic valve disorders and left ventricular assist devices</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Frontiers in Cardiovascular Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fcvm.2023.1098348</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36910539</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fcvm.2023.1098348</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine – Tucson, Tucson, AZ, USA; Department of Medicine, University of Arizona College of Medicine – Tucson, Tucson, AZ, USA; Division of Cardiology, Department of Medicine, University of Arizona College of Medicine - Tucson, Tucson, AZ, USA; Division of Cardiology, Department of Medicine, University of Arizona College of Medicine - Tucson, Tucson, AZ, USA; Division of Cardiology, Department of Medicine, University of Arizona College of Medicine - Tucson, Tucson, AZ, USA; Division of Cardiology, Department of Medicine, University of Arizona College of Medicine - Tucson, Tucson, AZ, USA; Division of Cardiology, Department of Medicine, University of Arizona College of Medicine - Tucson, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4384938645</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Steroid-Responsive Fulminant Lymphocytic Myocarditis Mimicking Giant-Cell Myocarditis</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.07.005</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37481023</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.07.005</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -606,80 +621,85 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pooja S. Jagadish, Arturo Hernández, Brendan Andres, Tushar Acharya, Elizabeth Juneman, Deepak Acharya</t>
+          <t>Arthur A. Cohen, Namit Rohant, Dina Al Rameni, Richard G. Smith, Elizabeth Juneman, Toshinobu Kazui, Robert L. Hooker, Francisco A. Arabía, Edward Betterton</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4323034199</t>
+          <t>Artificial Heart, Banner University Medical Center, Tucson, Arizona, United States; Banner University Medical Center, Tucson, Arizona, United States; Banner University Medical Center, Tucson, Arizona, United States; Artificial Heart, Banner University Medical Center, Tucson, Arizona, United States; Banner University Medical Center, Tucson, Arizona, United States; Banner University Medical Center, Tucson, Arizona, United States; Banner University Medical Center, Tucson, Arizona, United States; Banner University Medical Center, Phoenix, Arizona, United States; Artificial Heart, Banner University Medical Center, Tucson, Arizona, United States</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>STEROID-RESPONSIVE FULMINANT LYMPHOCYTIC MYOCARDITIS MIMICKING GIANT-CELL MYOCARDITIS</t>
+          <t>https://openalex.org/W4380319544</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>P110: Should Blood Type Matter For Durable VAD Implantation?: A Retrospective Analysis of VADs Transplanted in 2021 Comparing Regional versus National Data.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Journal of the American College of Cardiology</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>ASAIO Journal</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)03098-x</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1097/01.mat.0000944260.21914.21</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)03098-x</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1097/01.mat.0000944260.21914.21</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,80 +708,85 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Arthur A. Cohen, Namit Rohant, Dina Al Rameni, Richard G. Smith, Elizabeth Juneman, Toshinobu Kazui, Robert L. Hooker, Francisco A. Arabía, Edward Betterton</t>
+          <t>Pooja S. Jagadish, Arturo Hernández, Brendan Andres, Tushar Acharya, Elizabeth Juneman, Deepak Acharya</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380319544</t>
+          <t>University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; University of Arizona College of Medicine-Tucson, Tucson, AZ, USA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P110: Should Blood Type Matter For Durable VAD Implantation?: A Retrospective Analysis of VADs Transplanted in 2021 Comparing Regional versus National Data.</t>
+          <t>https://openalex.org/W4323034199</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>STEROID-RESPONSIVE FULMINANT LYMPHOCYTIC MYOCARDITIS MIMICKING GIANT-CELL MYOCARDITIS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ASAIO Journal</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000944260.21914.21</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1016/s0735-1097(23)03098-x</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1097/01.mat.0000944260.21914.21</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0735-1097(23)03098-x</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
